--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Icam2-Itgal.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Icam2-Itgal.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.17403933333333</v>
+        <v>46.595173</v>
       </c>
       <c r="H2">
-        <v>150.522118</v>
+        <v>139.785519</v>
       </c>
       <c r="I2">
-        <v>0.7978131386685359</v>
+        <v>0.7981698877785356</v>
       </c>
       <c r="J2">
-        <v>0.797813138668536</v>
+        <v>0.7981698877785355</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4641119999999999</v>
+        <v>0.3547066666666667</v>
       </c>
       <c r="N2">
-        <v>1.392336</v>
+        <v>1.06412</v>
       </c>
       <c r="O2">
-        <v>0.0167460263222975</v>
+        <v>0.006934574868045491</v>
       </c>
       <c r="P2">
-        <v>0.0167460263222975</v>
+        <v>0.00693457486804549</v>
       </c>
       <c r="Q2">
-        <v>23.28637374307199</v>
+        <v>16.52761849758667</v>
       </c>
       <c r="R2">
-        <v>209.577363687648</v>
+        <v>148.74856647828</v>
       </c>
       <c r="S2">
-        <v>0.01336019982041809</v>
+        <v>0.005534968844219723</v>
       </c>
       <c r="T2">
-        <v>0.01336019982041809</v>
+        <v>0.005534968844219721</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.17403933333333</v>
+        <v>46.595173</v>
       </c>
       <c r="H3">
-        <v>150.522118</v>
+        <v>139.785519</v>
       </c>
       <c r="I3">
-        <v>0.7978131386685359</v>
+        <v>0.7981698877785356</v>
       </c>
       <c r="J3">
-        <v>0.797813138668536</v>
+        <v>0.7981698877785355</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.559931</v>
       </c>
       <c r="O3">
-        <v>0.01876173968565624</v>
+        <v>0.01016563762403213</v>
       </c>
       <c r="P3">
-        <v>0.01876173968565624</v>
+        <v>0.01016563762403213</v>
       </c>
       <c r="Q3">
-        <v>26.08934645042867</v>
+        <v>24.228418271021</v>
       </c>
       <c r="R3">
-        <v>234.804118053858</v>
+        <v>218.055764439189</v>
       </c>
       <c r="S3">
-        <v>0.01496836242549543</v>
+        <v>0.008113905841570986</v>
       </c>
       <c r="T3">
-        <v>0.01496836242549544</v>
+        <v>0.008113905841570982</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.17403933333333</v>
+        <v>46.595173</v>
       </c>
       <c r="H4">
-        <v>150.522118</v>
+        <v>139.785519</v>
       </c>
       <c r="I4">
-        <v>0.7978131386685359</v>
+        <v>0.7981698877785356</v>
       </c>
       <c r="J4">
-        <v>0.797813138668536</v>
+        <v>0.7981698877785355</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.638014666666666</v>
+        <v>26.50170333333334</v>
       </c>
       <c r="N4">
-        <v>7.914044</v>
+        <v>79.50511</v>
       </c>
       <c r="O4">
-        <v>0.09518448789647083</v>
+        <v>0.5181127482682332</v>
       </c>
       <c r="P4">
-        <v>0.09518448789647084</v>
+        <v>0.5181127482682331</v>
       </c>
       <c r="Q4">
-        <v>132.3598516472435</v>
+        <v>1234.851451611343</v>
       </c>
       <c r="R4">
-        <v>1191.238664825192</v>
+        <v>11113.66306450209</v>
       </c>
       <c r="S4">
-        <v>0.07593943504124065</v>
+        <v>0.4135419941418843</v>
       </c>
       <c r="T4">
-        <v>0.07593943504124068</v>
+        <v>0.4135419941418842</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.17403933333333</v>
+        <v>46.595173</v>
       </c>
       <c r="H5">
-        <v>150.522118</v>
+        <v>139.785519</v>
       </c>
       <c r="I5">
-        <v>0.7978131386685359</v>
+        <v>0.7981698877785356</v>
       </c>
       <c r="J5">
-        <v>0.797813138668536</v>
+        <v>0.7981698877785355</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.047364</v>
+        <v>0.09443866666666667</v>
       </c>
       <c r="N5">
-        <v>0.142092</v>
+        <v>0.283316</v>
       </c>
       <c r="O5">
-        <v>0.001708981432777646</v>
+        <v>0.001846291784117559</v>
       </c>
       <c r="P5">
-        <v>0.001708981432777646</v>
+        <v>0.001846291784117558</v>
       </c>
       <c r="Q5">
-        <v>2.376443198984</v>
+        <v>4.400386011222666</v>
       </c>
       <c r="R5">
-        <v>21.387988790856</v>
+        <v>39.603474101004</v>
       </c>
       <c r="S5">
-        <v>0.001363447840810585</v>
+        <v>0.001473654506135544</v>
       </c>
       <c r="T5">
-        <v>0.001363447840810585</v>
+        <v>0.001473654506135544</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>50.17403933333333</v>
+        <v>46.595173</v>
       </c>
       <c r="H6">
-        <v>150.522118</v>
+        <v>139.785519</v>
       </c>
       <c r="I6">
-        <v>0.7978131386685359</v>
+        <v>0.7981698877785356</v>
       </c>
       <c r="J6">
-        <v>0.797813138668536</v>
+        <v>0.7981698877785355</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.04528633333333</v>
+        <v>23.67963033333333</v>
       </c>
       <c r="N6">
-        <v>72.135859</v>
+        <v>71.03889099999999</v>
       </c>
       <c r="O6">
-        <v>0.8675987646627978</v>
+        <v>0.4629407474555717</v>
       </c>
       <c r="P6">
-        <v>0.8675987646627977</v>
+        <v>0.4629407474555717</v>
       </c>
       <c r="Q6">
-        <v>1206.449142269929</v>
+        <v>1103.356471957714</v>
       </c>
       <c r="R6">
-        <v>10858.04228042936</v>
+        <v>9930.208247619428</v>
       </c>
       <c r="S6">
-        <v>0.6921816935405711</v>
+        <v>0.3695053644447251</v>
       </c>
       <c r="T6">
-        <v>0.6921816935405711</v>
+        <v>0.369505364444725</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>4.970055</v>
       </c>
       <c r="I7">
-        <v>0.02634280749959451</v>
+        <v>0.02837882113957134</v>
       </c>
       <c r="J7">
-        <v>0.02634280749959451</v>
+        <v>0.02837882113957133</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4641119999999999</v>
+        <v>0.3547066666666667</v>
       </c>
       <c r="N7">
-        <v>1.392336</v>
+        <v>1.06412</v>
       </c>
       <c r="O7">
-        <v>0.0167460263222975</v>
+        <v>0.006934574868045491</v>
       </c>
       <c r="P7">
-        <v>0.0167460263222975</v>
+        <v>0.00693457486804549</v>
       </c>
       <c r="Q7">
-        <v>0.76888738872</v>
+        <v>0.5876372140666667</v>
       </c>
       <c r="R7">
-        <v>6.919986498479999</v>
+        <v>5.2887349266</v>
       </c>
       <c r="S7">
-        <v>0.0004411373477914257</v>
+        <v>0.0001967950598592295</v>
       </c>
       <c r="T7">
-        <v>0.0004411373477914258</v>
+        <v>0.0001967950598592294</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4.970055</v>
       </c>
       <c r="I8">
-        <v>0.02634280749959451</v>
+        <v>0.02837882113957134</v>
       </c>
       <c r="J8">
-        <v>0.02634280749959451</v>
+        <v>0.02837882113957133</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>1.559931</v>
       </c>
       <c r="O8">
-        <v>0.01876173968565624</v>
+        <v>0.01016563762403213</v>
       </c>
       <c r="P8">
-        <v>0.01876173968565624</v>
+        <v>0.01016563762403213</v>
       </c>
       <c r="Q8">
         <v>0.8614380962450001</v>
@@ -948,10 +948,10 @@
         <v>7.752942866205</v>
       </c>
       <c r="S8">
-        <v>0.0004942368968967452</v>
+        <v>0.0002884888119021048</v>
       </c>
       <c r="T8">
-        <v>0.0004942368968967452</v>
+        <v>0.0002884888119021047</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4.970055</v>
       </c>
       <c r="I9">
-        <v>0.02634280749959451</v>
+        <v>0.02837882113957134</v>
       </c>
       <c r="J9">
-        <v>0.02634280749959451</v>
+        <v>0.02837882113957133</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.638014666666666</v>
+        <v>26.50170333333334</v>
       </c>
       <c r="N9">
-        <v>7.914044</v>
+        <v>79.50511</v>
       </c>
       <c r="O9">
-        <v>0.09518448789647083</v>
+        <v>0.5181127482682332</v>
       </c>
       <c r="P9">
-        <v>0.09518448789647084</v>
+        <v>0.5181127482682331</v>
       </c>
       <c r="Q9">
-        <v>4.370359328046667</v>
+        <v>43.90497438678334</v>
       </c>
       <c r="R9">
-        <v>39.33323395242</v>
+        <v>395.14476948105</v>
       </c>
       <c r="S9">
-        <v>0.002507426641604215</v>
+        <v>0.01470342901323594</v>
       </c>
       <c r="T9">
-        <v>0.002507426641604215</v>
+        <v>0.01470342901323593</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>4.970055</v>
       </c>
       <c r="I10">
-        <v>0.02634280749959451</v>
+        <v>0.02837882113957134</v>
       </c>
       <c r="J10">
-        <v>0.02634280749959451</v>
+        <v>0.02837882113957133</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.047364</v>
+        <v>0.09443866666666667</v>
       </c>
       <c r="N10">
-        <v>0.142092</v>
+        <v>0.283316</v>
       </c>
       <c r="O10">
-        <v>0.001708981432777646</v>
+        <v>0.001846291784117559</v>
       </c>
       <c r="P10">
-        <v>0.001708981432777646</v>
+        <v>0.001846291784117558</v>
       </c>
       <c r="Q10">
-        <v>0.07846722834</v>
+        <v>0.1564551224866667</v>
       </c>
       <c r="R10">
-        <v>0.70620505506</v>
+        <v>1.40809610238</v>
       </c>
       <c r="S10">
-        <v>4.501936890404275E-05</v>
+        <v>5.239558431293225E-05</v>
       </c>
       <c r="T10">
-        <v>4.501936890404275E-05</v>
+        <v>5.239558431293223E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>4.970055</v>
       </c>
       <c r="I11">
-        <v>0.02634280749959451</v>
+        <v>0.02837882113957134</v>
       </c>
       <c r="J11">
-        <v>0.02634280749959451</v>
+        <v>0.02837882113957133</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.04528633333333</v>
+        <v>23.67963033333333</v>
       </c>
       <c r="N11">
-        <v>72.135859</v>
+        <v>71.03889099999999</v>
       </c>
       <c r="O11">
-        <v>0.8675987646627978</v>
+        <v>0.4629407474555717</v>
       </c>
       <c r="P11">
-        <v>0.8675987646627977</v>
+        <v>0.4629407474555717</v>
       </c>
       <c r="Q11">
-        <v>39.83546518913834</v>
+        <v>39.22968837877833</v>
       </c>
       <c r="R11">
-        <v>358.519186702245</v>
+        <v>353.067195409005</v>
       </c>
       <c r="S11">
-        <v>0.02285498724439809</v>
+        <v>0.01313771267026113</v>
       </c>
       <c r="T11">
-        <v>0.02285498724439809</v>
+        <v>0.01313771267026113</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.722579</v>
+        <v>5.966798333333333</v>
       </c>
       <c r="H12">
-        <v>14.167737</v>
+        <v>17.900395</v>
       </c>
       <c r="I12">
-        <v>0.07509332763840293</v>
+        <v>0.102210560654294</v>
       </c>
       <c r="J12">
-        <v>0.07509332763840293</v>
+        <v>0.1022105606542939</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4641119999999999</v>
+        <v>0.3547066666666667</v>
       </c>
       <c r="N12">
-        <v>1.392336</v>
+        <v>1.06412</v>
       </c>
       <c r="O12">
-        <v>0.0167460263222975</v>
+        <v>0.006934574868045491</v>
       </c>
       <c r="P12">
-        <v>0.0167460263222975</v>
+        <v>0.00693457486804549</v>
       </c>
       <c r="Q12">
-        <v>2.191805584847999</v>
+        <v>2.116463147488889</v>
       </c>
       <c r="R12">
-        <v>19.726250263632</v>
+        <v>19.0481683274</v>
       </c>
       <c r="S12">
-        <v>0.001257514841261606</v>
+        <v>0.0007087867851621062</v>
       </c>
       <c r="T12">
-        <v>0.001257514841261606</v>
+        <v>0.000708786785162106</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.722579</v>
+        <v>5.966798333333333</v>
       </c>
       <c r="H13">
-        <v>14.167737</v>
+        <v>17.900395</v>
       </c>
       <c r="I13">
-        <v>0.07509332763840293</v>
+        <v>0.102210560654294</v>
       </c>
       <c r="J13">
-        <v>0.07509332763840293</v>
+        <v>0.1022105606542939</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>1.559931</v>
       </c>
       <c r="O13">
-        <v>0.01876173968565624</v>
+        <v>0.01016563762403213</v>
       </c>
       <c r="P13">
-        <v>0.01876173968565624</v>
+        <v>0.01016563762403213</v>
       </c>
       <c r="Q13">
-        <v>2.455632460683</v>
+        <v>3.102597896971667</v>
       </c>
       <c r="R13">
-        <v>22.100692146147</v>
+        <v>27.923381072745</v>
       </c>
       <c r="S13">
-        <v>0.001408881465281411</v>
+        <v>0.001039035520960709</v>
       </c>
       <c r="T13">
-        <v>0.001408881465281411</v>
+        <v>0.001039035520960709</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.722579</v>
+        <v>5.966798333333333</v>
       </c>
       <c r="H14">
-        <v>14.167737</v>
+        <v>17.900395</v>
       </c>
       <c r="I14">
-        <v>0.07509332763840293</v>
+        <v>0.102210560654294</v>
       </c>
       <c r="J14">
-        <v>0.07509332763840293</v>
+        <v>0.1022105606542939</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.638014666666666</v>
+        <v>26.50170333333334</v>
       </c>
       <c r="N14">
-        <v>7.914044</v>
+        <v>79.50511</v>
       </c>
       <c r="O14">
-        <v>0.09518448789647083</v>
+        <v>0.5181127482682332</v>
       </c>
       <c r="P14">
-        <v>0.09518448789647084</v>
+        <v>0.5181127482682331</v>
       </c>
       <c r="Q14">
-        <v>12.458232666492</v>
+        <v>158.1303192798278</v>
       </c>
       <c r="R14">
-        <v>112.124093998428</v>
+        <v>1423.17287351845</v>
       </c>
       <c r="S14">
-        <v>0.007147719935703282</v>
+        <v>0.05295659448263319</v>
       </c>
       <c r="T14">
-        <v>0.007147719935703283</v>
+        <v>0.05295659448263317</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.722579</v>
+        <v>5.966798333333333</v>
       </c>
       <c r="H15">
-        <v>14.167737</v>
+        <v>17.900395</v>
       </c>
       <c r="I15">
-        <v>0.07509332763840293</v>
+        <v>0.102210560654294</v>
       </c>
       <c r="J15">
-        <v>0.07509332763840293</v>
+        <v>0.1022105606542939</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.047364</v>
+        <v>0.09443866666666667</v>
       </c>
       <c r="N15">
-        <v>0.142092</v>
+        <v>0.283316</v>
       </c>
       <c r="O15">
-        <v>0.001708981432777646</v>
+        <v>0.001846291784117559</v>
       </c>
       <c r="P15">
-        <v>0.001708981432777646</v>
+        <v>0.001846291784117558</v>
       </c>
       <c r="Q15">
-        <v>0.223680231756</v>
+        <v>0.5634964788688889</v>
       </c>
       <c r="R15">
-        <v>2.013122085804</v>
+        <v>5.07146830982</v>
       </c>
       <c r="S15">
-        <v>0.000128333102659519</v>
+        <v>0.0001887105183860723</v>
       </c>
       <c r="T15">
-        <v>0.000128333102659519</v>
+        <v>0.0001887105183860723</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.722579</v>
+        <v>5.966798333333333</v>
       </c>
       <c r="H16">
-        <v>14.167737</v>
+        <v>17.900395</v>
       </c>
       <c r="I16">
-        <v>0.07509332763840293</v>
+        <v>0.102210560654294</v>
       </c>
       <c r="J16">
-        <v>0.07509332763840293</v>
+        <v>0.1022105606542939</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.04528633333333</v>
+        <v>23.67963033333333</v>
       </c>
       <c r="N16">
-        <v>72.135859</v>
+        <v>71.03889099999999</v>
       </c>
       <c r="O16">
-        <v>0.8675987646627978</v>
+        <v>0.4629407474555717</v>
       </c>
       <c r="P16">
-        <v>0.8675987646627977</v>
+        <v>0.4629407474555717</v>
       </c>
       <c r="Q16">
-        <v>113.555764286787</v>
+        <v>141.2915788068828</v>
       </c>
       <c r="R16">
-        <v>1022.001878581083</v>
+        <v>1271.624209261945</v>
       </c>
       <c r="S16">
-        <v>0.06515087829349711</v>
+        <v>0.0473174333471519</v>
       </c>
       <c r="T16">
-        <v>0.06515087829349711</v>
+        <v>0.04731743334715188</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.828283</v>
+        <v>0.4842143333333333</v>
       </c>
       <c r="H17">
-        <v>2.484849</v>
+        <v>1.452643</v>
       </c>
       <c r="I17">
-        <v>0.01317045764534999</v>
+        <v>0.008294535146321381</v>
       </c>
       <c r="J17">
-        <v>0.01317045764534999</v>
+        <v>0.008294535146321381</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.4641119999999999</v>
+        <v>0.3547066666666667</v>
       </c>
       <c r="N17">
-        <v>1.392336</v>
+        <v>1.06412</v>
       </c>
       <c r="O17">
-        <v>0.0167460263222975</v>
+        <v>0.006934574868045491</v>
       </c>
       <c r="P17">
-        <v>0.0167460263222975</v>
+        <v>0.00693457486804549</v>
       </c>
       <c r="Q17">
-        <v>0.3844160796959999</v>
+        <v>0.1717540521288889</v>
       </c>
       <c r="R17">
-        <v>3.459744717263999</v>
+        <v>1.54578646916</v>
       </c>
       <c r="S17">
-        <v>0.0002205528304057352</v>
+        <v>5.751907496780028E-05</v>
       </c>
       <c r="T17">
-        <v>0.0002205528304057352</v>
+        <v>5.751907496780027E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.828283</v>
+        <v>0.4842143333333333</v>
       </c>
       <c r="H18">
-        <v>2.484849</v>
+        <v>1.452643</v>
       </c>
       <c r="I18">
-        <v>0.01317045764534999</v>
+        <v>0.008294535146321381</v>
       </c>
       <c r="J18">
-        <v>0.01317045764534999</v>
+        <v>0.008294535146321381</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>1.559931</v>
       </c>
       <c r="O18">
-        <v>0.01876173968565624</v>
+        <v>0.01016563762403213</v>
       </c>
       <c r="P18">
-        <v>0.01876173968565624</v>
+        <v>0.01016563762403213</v>
       </c>
       <c r="Q18">
-        <v>0.430688109491</v>
+        <v>0.2517803164036667</v>
       </c>
       <c r="R18">
-        <v>3.876192985419</v>
+        <v>2.266022847633</v>
       </c>
       <c r="S18">
-        <v>0.0002471006978830175</v>
+        <v>8.431923855730149E-05</v>
       </c>
       <c r="T18">
-        <v>0.0002471006978830175</v>
+        <v>8.431923855730148E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.828283</v>
+        <v>0.4842143333333333</v>
       </c>
       <c r="H19">
-        <v>2.484849</v>
+        <v>1.452643</v>
       </c>
       <c r="I19">
-        <v>0.01317045764534999</v>
+        <v>0.008294535146321381</v>
       </c>
       <c r="J19">
-        <v>0.01317045764534999</v>
+        <v>0.008294535146321381</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.638014666666666</v>
+        <v>26.50170333333334</v>
       </c>
       <c r="N19">
-        <v>7.914044</v>
+        <v>79.50511</v>
       </c>
       <c r="O19">
-        <v>0.09518448789647083</v>
+        <v>0.5181127482682332</v>
       </c>
       <c r="P19">
-        <v>0.09518448789647084</v>
+        <v>0.5181127482682331</v>
       </c>
       <c r="Q19">
-        <v>2.185022702150667</v>
+        <v>12.83250461174778</v>
       </c>
       <c r="R19">
-        <v>19.665204319356</v>
+        <v>115.49254150573</v>
       </c>
       <c r="S19">
-        <v>0.001253623266334797</v>
+        <v>0.004297504400268022</v>
       </c>
       <c r="T19">
-        <v>0.001253623266334798</v>
+        <v>0.004297504400268022</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.828283</v>
+        <v>0.4842143333333333</v>
       </c>
       <c r="H20">
-        <v>2.484849</v>
+        <v>1.452643</v>
       </c>
       <c r="I20">
-        <v>0.01317045764534999</v>
+        <v>0.008294535146321381</v>
       </c>
       <c r="J20">
-        <v>0.01317045764534999</v>
+        <v>0.008294535146321381</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.047364</v>
+        <v>0.09443866666666667</v>
       </c>
       <c r="N20">
-        <v>0.142092</v>
+        <v>0.283316</v>
       </c>
       <c r="O20">
-        <v>0.001708981432777646</v>
+        <v>0.001846291784117559</v>
       </c>
       <c r="P20">
-        <v>0.001708981432777646</v>
+        <v>0.001846291784117558</v>
       </c>
       <c r="Q20">
-        <v>0.039230796012</v>
+        <v>0.04572855602088889</v>
       </c>
       <c r="R20">
-        <v>0.353077164108</v>
+        <v>0.411557004188</v>
       </c>
       <c r="S20">
-        <v>2.250806757708752E-05</v>
+        <v>1.53141320937275E-05</v>
       </c>
       <c r="T20">
-        <v>2.250806757708753E-05</v>
+        <v>1.53141320937275E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.828283</v>
+        <v>0.4842143333333333</v>
       </c>
       <c r="H21">
-        <v>2.484849</v>
+        <v>1.452643</v>
       </c>
       <c r="I21">
-        <v>0.01317045764534999</v>
+        <v>0.008294535146321381</v>
       </c>
       <c r="J21">
-        <v>0.01317045764534999</v>
+        <v>0.008294535146321381</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>24.04528633333333</v>
+        <v>23.67963033333333</v>
       </c>
       <c r="N21">
-        <v>72.135859</v>
+        <v>71.03889099999999</v>
       </c>
       <c r="O21">
-        <v>0.8675987646627978</v>
+        <v>0.4629407474555717</v>
       </c>
       <c r="P21">
-        <v>0.8675987646627977</v>
+        <v>0.4629407474555717</v>
       </c>
       <c r="Q21">
-        <v>19.91630190003233</v>
+        <v>11.46601641543478</v>
       </c>
       <c r="R21">
-        <v>179.246717100291</v>
+        <v>103.194147738913</v>
       </c>
       <c r="S21">
-        <v>0.01142667278314935</v>
+        <v>0.00383987830043453</v>
       </c>
       <c r="T21">
-        <v>0.01142667278314935</v>
+        <v>0.00383987830043453</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.507876</v>
+        <v>3.674642333333333</v>
       </c>
       <c r="H22">
-        <v>16.523628</v>
+        <v>11.023927</v>
       </c>
       <c r="I22">
-        <v>0.08758026854811665</v>
+        <v>0.0629461952812778</v>
       </c>
       <c r="J22">
-        <v>0.08758026854811667</v>
+        <v>0.0629461952812778</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.4641119999999999</v>
+        <v>0.3547066666666667</v>
       </c>
       <c r="N22">
-        <v>1.392336</v>
+        <v>1.06412</v>
       </c>
       <c r="O22">
-        <v>0.0167460263222975</v>
+        <v>0.006934574868045491</v>
       </c>
       <c r="P22">
-        <v>0.0167460263222975</v>
+        <v>0.00693457486804549</v>
       </c>
       <c r="Q22">
-        <v>2.556271346112</v>
+        <v>1.303420133248889</v>
       </c>
       <c r="R22">
-        <v>23.006442115008</v>
+        <v>11.73078119924</v>
       </c>
       <c r="S22">
-        <v>0.001466621482420645</v>
+        <v>0.0004365051038366327</v>
       </c>
       <c r="T22">
-        <v>0.001466621482420646</v>
+        <v>0.0004365051038366327</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.507876</v>
+        <v>3.674642333333333</v>
       </c>
       <c r="H23">
-        <v>16.523628</v>
+        <v>11.023927</v>
       </c>
       <c r="I23">
-        <v>0.08758026854811665</v>
+        <v>0.0629461952812778</v>
       </c>
       <c r="J23">
-        <v>0.08758026854811667</v>
+        <v>0.0629461952812778</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>1.559931</v>
       </c>
       <c r="O23">
-        <v>0.01876173968565624</v>
+        <v>0.01016563762403213</v>
       </c>
       <c r="P23">
-        <v>0.01876173968565624</v>
+        <v>0.01016563762403213</v>
       </c>
       <c r="Q23">
-        <v>2.863968838852</v>
+        <v>1.910729496559667</v>
       </c>
       <c r="R23">
-        <v>25.775719549668</v>
+        <v>17.196565469037</v>
       </c>
       <c r="S23">
-        <v>0.001643158200099631</v>
+        <v>0.0006398882110410315</v>
       </c>
       <c r="T23">
-        <v>0.001643158200099631</v>
+        <v>0.0006398882110410314</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.507876</v>
+        <v>3.674642333333333</v>
       </c>
       <c r="H24">
-        <v>16.523628</v>
+        <v>11.023927</v>
       </c>
       <c r="I24">
-        <v>0.08758026854811665</v>
+        <v>0.0629461952812778</v>
       </c>
       <c r="J24">
-        <v>0.08758026854811667</v>
+        <v>0.0629461952812778</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.638014666666666</v>
+        <v>26.50170333333334</v>
       </c>
       <c r="N24">
-        <v>7.914044</v>
+        <v>79.50511</v>
       </c>
       <c r="O24">
-        <v>0.09518448789647083</v>
+        <v>0.5181127482682332</v>
       </c>
       <c r="P24">
-        <v>0.09518448789647084</v>
+        <v>0.5181127482682331</v>
       </c>
       <c r="Q24">
-        <v>14.52985767018133</v>
+        <v>97.38428097410778</v>
       </c>
       <c r="R24">
-        <v>130.768719031632</v>
+        <v>876.4585287669701</v>
       </c>
       <c r="S24">
-        <v>0.008336283011587875</v>
+        <v>0.03261322623021173</v>
       </c>
       <c r="T24">
-        <v>0.008336283011587876</v>
+        <v>0.03261322623021173</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.507876</v>
+        <v>3.674642333333333</v>
       </c>
       <c r="H25">
-        <v>16.523628</v>
+        <v>11.023927</v>
       </c>
       <c r="I25">
-        <v>0.08758026854811665</v>
+        <v>0.0629461952812778</v>
       </c>
       <c r="J25">
-        <v>0.08758026854811667</v>
+        <v>0.0629461952812778</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.047364</v>
+        <v>0.09443866666666667</v>
       </c>
       <c r="N25">
-        <v>0.142092</v>
+        <v>0.283316</v>
       </c>
       <c r="O25">
-        <v>0.001708981432777646</v>
+        <v>0.001846291784117559</v>
       </c>
       <c r="P25">
-        <v>0.001708981432777646</v>
+        <v>0.001846291784117558</v>
       </c>
       <c r="Q25">
-        <v>0.260875038864</v>
+        <v>0.3470283224368889</v>
       </c>
       <c r="R25">
-        <v>2.347875349776</v>
+        <v>3.123254901932</v>
       </c>
       <c r="S25">
-        <v>0.0001496730528264114</v>
+        <v>0.0001162170431892826</v>
       </c>
       <c r="T25">
-        <v>0.0001496730528264114</v>
+        <v>0.0001162170431892826</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.507876</v>
+        <v>3.674642333333333</v>
       </c>
       <c r="H26">
-        <v>16.523628</v>
+        <v>11.023927</v>
       </c>
       <c r="I26">
-        <v>0.08758026854811665</v>
+        <v>0.0629461952812778</v>
       </c>
       <c r="J26">
-        <v>0.08758026854811667</v>
+        <v>0.0629461952812778</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>24.04528633333333</v>
+        <v>23.67963033333333</v>
       </c>
       <c r="N26">
-        <v>72.135859</v>
+        <v>71.03889099999999</v>
       </c>
       <c r="O26">
-        <v>0.8675987646627978</v>
+        <v>0.4629407474555717</v>
       </c>
       <c r="P26">
-        <v>0.8675987646627977</v>
+        <v>0.4629407474555717</v>
       </c>
       <c r="Q26">
-        <v>132.4384555084947</v>
+        <v>87.01417206055078</v>
       </c>
       <c r="R26">
-        <v>1191.946099576452</v>
+        <v>783.127548544957</v>
       </c>
       <c r="S26">
-        <v>0.0759845328011821</v>
+        <v>0.02914035869299913</v>
       </c>
       <c r="T26">
-        <v>0.0759845328011821</v>
+        <v>0.02914035869299912</v>
       </c>
     </row>
   </sheetData>
